--- a/EXAMS_INTERNAL/ND/ND-2024/RAW_RESULTS/SECOND-YEAR-SECOND-SEMESTER.xlsx
+++ b/EXAMS_INTERNAL/ND/ND-2024/RAW_RESULTS/SECOND-YEAR-SECOND-SEMESTER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CA" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="242">
   <si>
     <t>S/N</t>
   </si>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5526,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9737,8 +9737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9998,8 +9998,8 @@
       <c r="F6" s="1">
         <v>60</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
+      <c r="G6" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="H6" s="1">
         <v>43</v>
@@ -10262,8 +10262,8 @@
       <c r="F12" s="1">
         <v>59</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="H12" s="1">
         <v>53</v>
@@ -10482,8 +10482,8 @@
       <c r="F17" s="1">
         <v>58.5</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
+      <c r="G17" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="H17" s="1">
         <v>53</v>
@@ -10652,8 +10652,8 @@
       <c r="D21" s="1">
         <v>40</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="F21" s="1">
         <v>57</v>
@@ -10878,8 +10878,8 @@
       <c r="F26" s="1">
         <v>55</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
+      <c r="G26" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="H26" s="1">
         <v>45</v>
@@ -11573,8 +11573,8 @@
       <c r="C42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E42" s="1">
         <v>53.5</v>
@@ -12145,8 +12145,8 @@
       <c r="C55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="3">
-        <v>0</v>
+      <c r="D55" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E55" s="1">
         <v>52.5</v>
@@ -12594,8 +12594,8 @@
       <c r="F65" s="1">
         <v>51</v>
       </c>
-      <c r="G65" s="3">
-        <v>0</v>
+      <c r="G65" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="H65" s="1">
         <v>36</v>
@@ -12720,8 +12720,8 @@
       <c r="D68" s="1">
         <v>47.5</v>
       </c>
-      <c r="E68" s="3">
-        <v>0</v>
+      <c r="E68" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="F68" s="1">
         <v>58</v>
@@ -13474,8 +13474,8 @@
       <c r="F85" s="1">
         <v>58</v>
       </c>
-      <c r="G85" s="3">
-        <v>0</v>
+      <c r="G85" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="H85" s="1">
         <v>43</v>
@@ -13509,8 +13509,8 @@
       <c r="C86" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D86" s="3">
-        <v>0</v>
+      <c r="D86" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E86" s="1">
         <v>39.5</v>
@@ -13776,8 +13776,8 @@
       <c r="D92" s="1">
         <v>55.5</v>
       </c>
-      <c r="E92" s="3">
-        <v>0</v>
+      <c r="E92" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="F92" s="1">
         <v>59</v>
@@ -13870,8 +13870,8 @@
       <c r="F94" s="1">
         <v>50.5</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="H94" s="1">
         <v>54</v>

--- a/EXAMS_INTERNAL/ND/ND-2024/RAW_RESULTS/SECOND-YEAR-SECOND-SEMESTER.xlsx
+++ b/EXAMS_INTERNAL/ND/ND-2024/RAW_RESULTS/SECOND-YEAR-SECOND-SEMESTER.xlsx
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5526,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6560,7 +6560,7 @@
         <v>14.25714285714286</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>14.714285714285714</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>13.942857142857143</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>16.642857142857142</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>13.542857142857144</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>12.528571428571427</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>12.842857142857145</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>12.328571428571429</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>12.328571428571429</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9737,8 +9737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11052,7 +11052,7 @@
         <v>53</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G30" s="1">
         <v>43.5</v>
